--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,36 +447,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ファイブコート梅田</t>
+          <t>アスタ・ラ・ビスタ新梅田</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>取得できませんでした</t>
+          <t>〒531-0075 大阪府大阪市北区大淀南１丁目６−１９</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SIETE中崎町</t>
+          <t>エスリード梅田西第3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乗換地点 ID: T19</t>
+          <t>〒553-0003 大阪府大阪市福島区福島６丁目１９−１５</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>エスティライフ梅田新道</t>
+          <t>トレヴァンス梅田</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>〒530-0056 大阪府大阪市北区兎我野町１５−３</t>
+          <t>〒531-0072 大阪府大阪市北区豊崎４丁目１−２</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -488,24 +498,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>フジマン北梅田</t>
+          <t>ライブコート北梅田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>取得できませんでした</t>
+          <t>〒531-0072 大阪府大阪市北区豊崎５丁目４−２</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>アスタ・ラ・ビスタ新梅田</t>
+          <t>パークアクシス梅田</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>〒531-0075 大阪府大阪市北区大淀南１丁目６−１９</t>
+          <t>〒531-0072 大阪府大阪市北区豊崎３丁目１１−１</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -517,83 +532,49 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>トレヴァンス梅田</t>
+          <t>トゥールロワイエ北梅田</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎４丁目１−２</t>
+          <t>〒531-0072 大阪府大阪市北区豊崎５丁目８−１７</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ファミリー隼</t>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ライブコート北梅田</t>
+          <t>クリエイト21アテンドル梅田</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎５丁目４−２</t>
+          <t>〒553-0003 大阪府大阪市福島区福島６丁目１９−７</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ＶＤＳＬ方式</t>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>パークアクシス梅田</t>
+          <t>プレサンス梅田東ディアロ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎３丁目１１−１</t>
+          <t>〒530-0025 大阪府大阪市北区扇町２丁目６−７</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>クリエイト21アテンドル梅田</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>〒553-0003 大阪府大阪市福島区福島６丁目１９−７</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>プレサンス梅田東ディアロ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>〒530-0025 大阪府大阪市北区扇町２丁目６−７</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>ファミリー隼</t>
         </is>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,18 +413,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,136 +445,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>アスタ・ラ・ビスタ新梅田</t>
+          <t>ベルエアー</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>〒531-0075 大阪府大阪市北区大淀南１丁目６−１９</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>エスリード梅田西第3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>〒553-0003 大阪府大阪市福島区福島６丁目１９−１５</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>トレヴァンス梅田</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎４丁目１−２</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ファミリー隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ライブコート北梅田</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎５丁目４−２</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>パークアクシス梅田</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎３丁目１１−１</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>トゥールロワイエ北梅田</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎５丁目８−１７</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>クリエイト21アテンドル梅田</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>〒553-0003 大阪府大阪市福島区福島６丁目１９−７</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>プレサンス梅田東ディアロ</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>〒530-0025 大阪府大阪市北区扇町２丁目６−７</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ファミリー隼</t>
+          <t>大橋御苑駅ビル 7階, １丁目-８-１ 新宿 新宿区 東京都 160-0022</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,16 +413,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,12 +447,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ベルエアー</t>
+          <t>ジュネーゼグラン天満</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大橋御苑駅ビル 7階, １丁目-８-１ 新宿 新宿区 東京都 160-0022</t>
+          <t>〒530-0043 大阪府大阪市北区天満２丁目１２−９</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ファミリー隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>パライッソ・オク</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>取得できませんでした</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ハーベストメイセイ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>取得できませんでした</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>セレニテ天六西</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>〒531-0074 大阪府大阪市北区本庄東２丁目１５−１８</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>エステムコート梅田・天神橋リバーフロント</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>〒531-0061 大阪府大阪市北区長柄西２丁目１３−２</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ノルデンハイムリバーサイド天神橋</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>〒531-0064 大阪府大阪市北区国分寺１丁目２−１３</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>グリッドコート天神橋</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>〒531-0041 大阪府大阪市北区天神橋８丁目１４−２</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>プレサンス梅田フロンティア</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>〒530-0047 大阪府大阪市北区西天満５丁目８−１８</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ファミリー隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>アムズメイプル扇町</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>〒530-0053 大阪府大阪市北区末広町３−９</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ファミリー隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>メゾン・ド・セレーネ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>〒531-0074 大阪府大阪市北区本庄東２丁目５−１６</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>隼</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,53 +447,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ジュネーゼグラン天満</t>
+          <t>ノイン・ツェーン・エルフ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>〒530-0043 大阪府大阪市北区天満２丁目１２−９</t>
+          <t>〒531-0076 大阪府大阪市北区大淀中１丁目１１−４</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ファミリー隼</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>パライッソ・オク</t>
+          <t>ラナップスクエア中之島公園</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>取得できませんでした</t>
+          <t>〒530-0047 大阪府大阪市北区西天満３丁目１−１７</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ハーベストメイセイ</t>
+          <t>ライブコート北梅田</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>取得できませんでした</t>
+          <t>〒531-0072 大阪府大阪市北区豊崎５丁目４−２</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>セレニテ天六西</t>
+          <t>アバンダンス天神橋</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>〒531-0074 大阪府大阪市北区本庄東２丁目１５−１８</t>
+          <t>〒530-0041 大阪府大阪市北区天神橋６丁目５−９</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -505,12 +515,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>エステムコート梅田・天神橋リバーフロント</t>
+          <t>M&amp;Mウメダイースト</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>〒531-0061 大阪府大阪市北区長柄西２丁目１３−２</t>
+          <t>〒530-0047 大阪府大阪市北区西天満６丁目４−９</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -522,12 +532,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ノルデンハイムリバーサイド天神橋</t>
+          <t>シャンティ千歳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>〒531-0064 大阪府大阪市北区国分寺１丁目２−１３</t>
+          <t>〒530-0043 大阪府大阪市北区天満２丁目４−２２</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -539,68 +549,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>グリッドコート天神橋</t>
+          <t>レジュールアッシュ梅田イースト</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>〒531-0041 大阪府大阪市北区天神橋８丁目１４−２</t>
+          <t>〒530-0041 大阪府大阪市北区天神橋３丁目７−２６</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>プレサンス梅田フロンティア</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>〒530-0047 大阪府大阪市北区西天満５丁目８−１８</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>ファミリー隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>アムズメイプル扇町</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>〒530-0053 大阪府大阪市北区末広町３−９</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ファミリー隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>メゾン・ド・セレーネ</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>〒531-0074 大阪府大阪市北区本庄東２丁目５−１６</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>隼</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,97 +447,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ノイン・ツェーン・エルフ</t>
+          <t>フィールドイン新大阪</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>〒531-0076 大阪府大阪市北区大淀中１丁目１１−４</t>
+          <t>〒552-0005 大阪府大阪市港区田中２丁目９</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ＶＤＳＬ方式</t>
+          <t>提供可否不明</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ラナップスクエア中之島公園</t>
+          <t>C-WING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>〒530-0047 大阪府大阪市北区西天満３丁目１−１７</t>
+          <t>〒533-0033 大阪府大阪市東淀川区東中島１丁目２−７</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>隼</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ライブコート北梅田</t>
+          <t>三賀マンション</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>〒531-0072 大阪府大阪市北区豊崎５丁目４−２</t>
+          <t>〒533-0014 大阪府大阪市東淀川区豊新１丁目４−３３</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ＶＤＳＬ方式</t>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>アバンダンス天神橋</t>
+          <t>ハイツロフティー</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>〒530-0041 大阪府大阪市北区天神橋６丁目５−９</t>
+          <t>〒533-0012 大阪府大阪市東淀川区大道南３丁目１２−７</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>隼</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M&amp;Mウメダイースト</t>
+          <t>ベルメゾンリズ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>〒530-0047 大阪府大阪市北区西天満６丁目４−９</t>
+          <t>〒533-0021 大阪府大阪市東淀川区下新庄１丁目１１−１５</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>隼</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>シャンティ千歳</t>
+          <t>WHOS WHO AP江口橋</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>〒530-0043 大阪府大阪市北区天満２丁目４−２２</t>
+          <t>〒533-0003 大阪府大阪市東淀川区南江口３丁目１−２７</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,17 +549,53 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>レジュールアッシュ梅田イースト</t>
+          <t>メゾン・ド・スラン</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>〒530-0041 大阪府大阪市北区天神橋３丁目７−２６</t>
+          <t>〒533-0007 大阪府大阪市東淀川区相川２丁目２３−１７</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ファミリー隼</t>
+          <t>隼</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ハーベストヒルズ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>〒601-8048 京都府京都市南区東九条中殿田町１４−４ Unnamed Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DOクレスト新大阪</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>〒533-0033 大阪府大阪市東淀川区東中島１丁目１５−１５</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>サンライト上新庄</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>〒533-0004 大阪府大阪市東淀川区小松２丁目９−１６</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -447,29 +447,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>フィールドイン新大阪</t>
+          <t>アルグラッド野田駅前</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>〒552-0005 大阪府大阪市港区田中２丁目９</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野３丁目３−３４</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>提供可否不明</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C-WING</t>
+          <t>プリモディーネ福島</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>〒533-0033 大阪府大阪市東淀川区東中島１丁目２−７</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野４丁目１３−２５</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,46 +481,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>三賀マンション</t>
+          <t>ルミナス福島</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>〒533-0014 大阪府大阪市東淀川区豊新１丁目４−３３</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野５丁目１３−２３</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>隼</t>
+          <t>ＶＤＳＬ方式</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ハイツロフティー</t>
+          <t>ロイヤル吉野</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>〒533-0012 大阪府大阪市東淀川区大道南３丁目１２−７</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
+          <t>取得できませんでした</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ベルメゾンリズ</t>
+          <t>エスポルテ福島</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>〒533-0021 大阪府大阪市東淀川区下新庄１丁目１１−１５</t>
+          <t>〒553-0003 大阪府大阪市福島区福島７丁目１４−９</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -532,12 +527,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WHOS WHO AP江口橋</t>
+          <t>WILLDO海老江</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>〒533-0003 大阪府大阪市東淀川区南江口３丁目１−２７</t>
+          <t>〒553-0001 大阪府大阪市福島区海老江５丁目６−２０</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -549,12 +544,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>メゾン・ド・スラン</t>
+          <t>プリマベラ福島</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>〒533-0007 大阪府大阪市東淀川区相川２丁目２３−１７</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野４丁目２０−３</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -566,36 +561,46 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ハーベストヒルズ</t>
+          <t>グリシナ野田</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>〒601-8048 京都府京都市南区東九条中殿田町１４−４ Unnamed Road</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野４丁目９</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>提供可否不明</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DOクレスト新大阪</t>
+          <t>レジデンス福島II</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>〒533-0033 大阪府大阪市東淀川区東中島１丁目１５−１５</t>
+          <t>〒553-0006 大阪府大阪市福島区吉野４丁目２４−２０</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>隼</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>サンライト上新庄</t>
+          <t>シティサイドステージ福島</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>〒533-0004 大阪府大阪市東淀川区小松２丁目９−１６</t>
+          <t>取得できませんでした</t>
         </is>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -413,18 +413,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -447,158 +445,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>アルグラッド野田駅前</t>
+          <t>ハイツ福寿</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野３丁目３−３４</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>プリモディーネ福島</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野４丁目１３−２５</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ルミナス福島</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野５丁目１３−２３</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ロイヤル吉野</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>取得できませんでした</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>エスポルテ福島</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>〒553-0003 大阪府大阪市福島区福島７丁目１４−９</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ＶＤＳＬ方式</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>WILLDO海老江</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>〒553-0001 大阪府大阪市福島区海老江５丁目６−２０</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>プリマベラ福島</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野４丁目２０−３</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>グリシナ野田</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野４丁目９</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>提供可否不明</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>レジデンス福島II</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>〒553-0006 大阪府大阪市福島区吉野４丁目２４−２０</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>隼</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>シティサイドステージ福島</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>取得できませんでした</t>
         </is>
